--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnc-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H2">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I2">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J2">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>254.6695281450702</v>
+        <v>0.5067623728444444</v>
       </c>
       <c r="R2">
-        <v>2292.025753305631</v>
+        <v>4.560861355599999</v>
       </c>
       <c r="S2">
-        <v>0.2217677817807991</v>
+        <v>0.002337777898554282</v>
       </c>
       <c r="T2">
-        <v>0.2217677817807992</v>
+        <v>0.002337777898554281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H3">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I3">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J3">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>432.3414245439204</v>
+        <v>4.827982604964444</v>
       </c>
       <c r="R3">
-        <v>3891.072820895283</v>
+        <v>43.45184344468</v>
       </c>
       <c r="S3">
-        <v>0.3764855551875808</v>
+        <v>0.02227227519900138</v>
       </c>
       <c r="T3">
-        <v>0.3764855551875809</v>
+        <v>0.02227227519900137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.07002266666666</v>
+        <v>0.1347866666666667</v>
       </c>
       <c r="H4">
-        <v>36.21006799999999</v>
+        <v>0.40436</v>
       </c>
       <c r="I4">
-        <v>0.7601982364861632</v>
+        <v>0.03419045085634245</v>
       </c>
       <c r="J4">
-        <v>0.7601982364861634</v>
+        <v>0.03419045085634244</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>185.9712480077911</v>
+        <v>2.076752074711111</v>
       </c>
       <c r="R4">
-        <v>1673.74123207012</v>
+        <v>18.6907686724</v>
       </c>
       <c r="S4">
-        <v>0.1619448995177833</v>
+        <v>0.009580397758786783</v>
       </c>
       <c r="T4">
-        <v>0.1619448995177834</v>
+        <v>0.009580397758786779</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.924804</v>
       </c>
       <c r="I5">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J5">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>27.60359308747734</v>
+        <v>4.918743169426667</v>
       </c>
       <c r="R5">
-        <v>248.432337787296</v>
+        <v>44.26868852483999</v>
       </c>
       <c r="S5">
-        <v>0.02403737758803457</v>
+        <v>0.02269096856107785</v>
       </c>
       <c r="T5">
-        <v>0.02403737758803458</v>
+        <v>0.02269096856107785</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.924804</v>
       </c>
       <c r="I6">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J6">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>46.86142407729466</v>
@@ -818,10 +818,10 @@
         <v>421.752816695652</v>
       </c>
       <c r="S6">
-        <v>0.04080721452780586</v>
+        <v>0.2161794311755401</v>
       </c>
       <c r="T6">
-        <v>0.04080721452780587</v>
+        <v>0.2161794311755401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.924804</v>
       </c>
       <c r="I7">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="J7">
-        <v>0.08239777620284613</v>
+        <v>0.3318597741685039</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>20.15739650270667</v>
@@ -880,10 +880,10 @@
         <v>181.41656852436</v>
       </c>
       <c r="S7">
-        <v>0.0175531840870057</v>
+        <v>0.09298937443188594</v>
       </c>
       <c r="T7">
-        <v>0.0175531840870057</v>
+        <v>0.09298937443188592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>7.49753</v>
       </c>
       <c r="I8">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J8">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>52.73098154230222</v>
+        <v>9.396246150144444</v>
       </c>
       <c r="R8">
-        <v>474.5788338807201</v>
+        <v>84.5662153513</v>
       </c>
       <c r="S8">
-        <v>0.04591846104611003</v>
+        <v>0.04334642379994977</v>
       </c>
       <c r="T8">
-        <v>0.04591846104611005</v>
+        <v>0.04334642379994975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>7.49753</v>
       </c>
       <c r="I9">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J9">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>89.51910282965444</v>
@@ -1004,10 +1004,10 @@
         <v>805.67192546689</v>
       </c>
       <c r="S9">
-        <v>0.07795378193118949</v>
+        <v>0.4129662960549234</v>
       </c>
       <c r="T9">
-        <v>0.07795378193118951</v>
+        <v>0.4129662960549232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>7.49753</v>
       </c>
       <c r="I10">
-        <v>0.1574039873109905</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="J10">
-        <v>0.1574039873109906</v>
+        <v>0.6339497749751537</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>38.50655599641111</v>
@@ -1066,10 +1066,10 @@
         <v>346.5590039677</v>
       </c>
       <c r="S10">
-        <v>0.03353174433369101</v>
+        <v>0.1776370551202806</v>
       </c>
       <c r="T10">
-        <v>0.03353174433369103</v>
+        <v>0.1776370551202806</v>
       </c>
     </row>
   </sheetData>
